--- a/biology/Zoologie/Cribrospongia/Cribrospongia.xlsx
+++ b/biology/Zoologie/Cribrospongia/Cribrospongia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cribrospongia est un genre éteint d'éponges siliceuses de la famille des Cribrospongiidae et de l'ordre des Hexactinosida, ayant vécu au Jurassique et au Crétacé. Ses fossiles sont connus en Europe et en Amérique du sud (Argentine). Il donne son nom à la famille des Cribrospongiidae.
 Les différentes espèces ont été décrites en Amérique du Sud, en Asie et en Europe. L'espèce C. elegans (syn. Tremadictyon elegans) a été décrite dans des terrains du Jurassique en Allemagne. C. reticulata (syn. Scyphia reticulata, Tremadictyon reticulatum) a été décrite dans des terrains jurassiques d'Argentine, d'Espagne, de France, d'Allemagne, de Pologne, du Portugal et de Roumanie.
